--- a/biology/Botanique/Flamboyant/Flamboyant.xlsx
+++ b/biology/Botanique/Flamboyant/Flamboyant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flamboyant est un nom vernaculaire ambigu désignant en français certains arbres ou arbustes de la famille des Caesalpiniaceae. Par extension le nom de flamboyant peut aussi référer à d'autres arbres à fleurs rouges.
 Les flamboyants sont des plantes d'origine tropicale.
@@ -512,7 +524,9 @@
           <t>Espèces nommées « flamboyant »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flamboyant - Delonix regia :  un arbre à floraison rouge spectaculaire. Originaire de Madagascar, on le rencontre maintenant dans toute la zone intertropicale comme arbre ornemental ;
 Le flamboyant ou petit flamboyant - Caesalpinia pulcherrima :  dit aussi fleur de paon, c'est un arbuste persistant de 3 à 5 m de haut qui est originaire  des régions tropicales chaudes d'Amérique. C'est l'emblème de la Barbade (Pride of Barbados)
@@ -553,7 +567,9 @@
           <t>Usage ancien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
